--- a/Documentation/Assignment1.xlsx
+++ b/Documentation/Assignment1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\School\Year 2\Compiler Theory\CPS2000\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CE7851-FDF2-4232-82D9-2CAA76D32951}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DEAF6F-1115-4695-864E-27E66B02F32B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{CD838E60-5761-47BA-9DF5-194D02436BF0}"/>
   </bookViews>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D27B639-3AD5-445C-AFBD-27629891CF59}">
   <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2375,7 +2375,7 @@
         <v>57</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>57</v>
